--- a/Scraping Scripts and Template/Template.xlsx
+++ b/Scraping Scripts and Template/Template.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Brayden\Documents\GitHub\NHLPlayoffs\Scraping Scipts and Template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Brayden\Documents\GitHub\NHLPlayoffs\Scraping Scripts and Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="801" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="841" uniqueCount="46">
   <si>
     <t>Year</t>
   </si>
@@ -576,10 +576,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F196"/>
+  <dimension ref="A1:F220"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
-      <selection activeCell="E197" sqref="E197"/>
+    <sheetView tabSelected="1" topLeftCell="A184" workbookViewId="0">
+      <selection activeCell="F205" sqref="F205"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4825,6 +4825,294 @@
         <v>stanley-cup-final</v>
       </c>
     </row>
+    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A197" s="5">
+        <v>2019</v>
+      </c>
+      <c r="B197" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C197" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D197" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E197" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F197" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A198" s="5">
+        <v>2019</v>
+      </c>
+      <c r="B198" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C198" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D198" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E198" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F198" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A199" s="5">
+        <v>2019</v>
+      </c>
+      <c r="B199" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C199" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D199" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E199" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F199" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A200" s="5">
+        <v>2019</v>
+      </c>
+      <c r="B200" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C200" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D200" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E200" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F200" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A201" s="5">
+        <v>2019</v>
+      </c>
+      <c r="B201" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C201" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D201" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E201" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F201" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A202" s="5">
+        <v>2019</v>
+      </c>
+      <c r="B202" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C202" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D202" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E202" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F202" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A203" s="5">
+        <v>2019</v>
+      </c>
+      <c r="B203" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C203" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D203" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E203" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F203" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A204" s="5">
+        <v>2019</v>
+      </c>
+      <c r="B204" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C204" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D204" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E204" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="F204" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A205" s="5"/>
+      <c r="B205" s="5"/>
+      <c r="C205" s="5"/>
+      <c r="D205" s="5"/>
+      <c r="E205" s="5"/>
+      <c r="F205" s="5"/>
+    </row>
+    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A206" s="5"/>
+      <c r="B206" s="5"/>
+      <c r="C206" s="5"/>
+      <c r="D206" s="5"/>
+      <c r="E206" s="5"/>
+      <c r="F206" s="5"/>
+    </row>
+    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A207" s="5"/>
+      <c r="B207" s="5"/>
+      <c r="C207" s="5"/>
+      <c r="D207" s="5"/>
+      <c r="E207" s="5"/>
+      <c r="F207" s="5"/>
+    </row>
+    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A208" s="5"/>
+      <c r="B208" s="5"/>
+      <c r="C208" s="5"/>
+      <c r="D208" s="5"/>
+      <c r="E208" s="5"/>
+      <c r="F208" s="5"/>
+    </row>
+    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A209" s="5"/>
+      <c r="B209" s="5"/>
+      <c r="C209" s="5"/>
+      <c r="D209" s="5"/>
+      <c r="E209" s="5"/>
+      <c r="F209" s="5"/>
+    </row>
+    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A210" s="5"/>
+      <c r="B210" s="5"/>
+      <c r="C210" s="5"/>
+      <c r="D210" s="5"/>
+      <c r="E210" s="5"/>
+      <c r="F210" s="5"/>
+    </row>
+    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A211" s="5"/>
+      <c r="B211" s="5"/>
+      <c r="C211" s="5"/>
+      <c r="D211" s="5"/>
+      <c r="E211" s="5"/>
+      <c r="F211" s="5"/>
+    </row>
+    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A212" s="5"/>
+      <c r="B212" s="5"/>
+      <c r="C212" s="5"/>
+      <c r="D212" s="5"/>
+      <c r="E212" s="5"/>
+      <c r="F212" s="5"/>
+    </row>
+    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A213" s="5"/>
+      <c r="B213" s="5"/>
+      <c r="C213" s="5"/>
+      <c r="D213" s="5"/>
+      <c r="E213" s="5"/>
+      <c r="F213" s="5"/>
+    </row>
+    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A214" s="5"/>
+      <c r="B214" s="5"/>
+      <c r="C214" s="5"/>
+      <c r="D214" s="5"/>
+      <c r="E214" s="5"/>
+      <c r="F214" s="5"/>
+    </row>
+    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A215" s="5"/>
+      <c r="B215" s="5"/>
+      <c r="C215" s="5"/>
+      <c r="D215" s="5"/>
+      <c r="E215" s="5"/>
+      <c r="F215" s="5"/>
+    </row>
+    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A216" s="5"/>
+      <c r="B216" s="5"/>
+      <c r="C216" s="5"/>
+      <c r="D216" s="5"/>
+      <c r="E216" s="5"/>
+      <c r="F216" s="5"/>
+    </row>
+    <row r="217" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A217" s="5"/>
+      <c r="B217" s="5"/>
+      <c r="C217" s="5"/>
+      <c r="D217" s="5"/>
+      <c r="E217" s="5"/>
+      <c r="F217" s="5"/>
+    </row>
+    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A218" s="5"/>
+      <c r="B218" s="5"/>
+      <c r="C218" s="5"/>
+      <c r="D218" s="5"/>
+      <c r="E218" s="5"/>
+      <c r="F218" s="5"/>
+    </row>
+    <row r="219" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A219" s="5"/>
+      <c r="B219" s="5"/>
+      <c r="C219" s="5"/>
+      <c r="D219" s="5"/>
+      <c r="E219" s="5"/>
+      <c r="F219" s="5"/>
+    </row>
+    <row r="220" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A220" s="5"/>
+      <c r="B220" s="5"/>
+      <c r="C220" s="5"/>
+      <c r="D220" s="5"/>
+      <c r="E220" s="5"/>
+      <c r="F220" s="5"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Scraping Scripts and Template/Template.xlsx
+++ b/Scraping Scripts and Template/Template.xlsx
@@ -576,10 +576,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F220"/>
+  <dimension ref="A1:F204"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A184" workbookViewId="0">
-      <selection activeCell="F205" sqref="F205"/>
+    <sheetView tabSelected="1" topLeftCell="A188" workbookViewId="0">
+      <selection activeCell="E205" sqref="E205"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4879,7 +4879,7 @@
         <v>20</v>
       </c>
       <c r="E199" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F199" s="5" t="s">
         <v>23</v>
@@ -4984,134 +4984,6 @@
       <c r="F204" s="5" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A205" s="5"/>
-      <c r="B205" s="5"/>
-      <c r="C205" s="5"/>
-      <c r="D205" s="5"/>
-      <c r="E205" s="5"/>
-      <c r="F205" s="5"/>
-    </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A206" s="5"/>
-      <c r="B206" s="5"/>
-      <c r="C206" s="5"/>
-      <c r="D206" s="5"/>
-      <c r="E206" s="5"/>
-      <c r="F206" s="5"/>
-    </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A207" s="5"/>
-      <c r="B207" s="5"/>
-      <c r="C207" s="5"/>
-      <c r="D207" s="5"/>
-      <c r="E207" s="5"/>
-      <c r="F207" s="5"/>
-    </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A208" s="5"/>
-      <c r="B208" s="5"/>
-      <c r="C208" s="5"/>
-      <c r="D208" s="5"/>
-      <c r="E208" s="5"/>
-      <c r="F208" s="5"/>
-    </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A209" s="5"/>
-      <c r="B209" s="5"/>
-      <c r="C209" s="5"/>
-      <c r="D209" s="5"/>
-      <c r="E209" s="5"/>
-      <c r="F209" s="5"/>
-    </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A210" s="5"/>
-      <c r="B210" s="5"/>
-      <c r="C210" s="5"/>
-      <c r="D210" s="5"/>
-      <c r="E210" s="5"/>
-      <c r="F210" s="5"/>
-    </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A211" s="5"/>
-      <c r="B211" s="5"/>
-      <c r="C211" s="5"/>
-      <c r="D211" s="5"/>
-      <c r="E211" s="5"/>
-      <c r="F211" s="5"/>
-    </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A212" s="5"/>
-      <c r="B212" s="5"/>
-      <c r="C212" s="5"/>
-      <c r="D212" s="5"/>
-      <c r="E212" s="5"/>
-      <c r="F212" s="5"/>
-    </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A213" s="5"/>
-      <c r="B213" s="5"/>
-      <c r="C213" s="5"/>
-      <c r="D213" s="5"/>
-      <c r="E213" s="5"/>
-      <c r="F213" s="5"/>
-    </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A214" s="5"/>
-      <c r="B214" s="5"/>
-      <c r="C214" s="5"/>
-      <c r="D214" s="5"/>
-      <c r="E214" s="5"/>
-      <c r="F214" s="5"/>
-    </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A215" s="5"/>
-      <c r="B215" s="5"/>
-      <c r="C215" s="5"/>
-      <c r="D215" s="5"/>
-      <c r="E215" s="5"/>
-      <c r="F215" s="5"/>
-    </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A216" s="5"/>
-      <c r="B216" s="5"/>
-      <c r="C216" s="5"/>
-      <c r="D216" s="5"/>
-      <c r="E216" s="5"/>
-      <c r="F216" s="5"/>
-    </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A217" s="5"/>
-      <c r="B217" s="5"/>
-      <c r="C217" s="5"/>
-      <c r="D217" s="5"/>
-      <c r="E217" s="5"/>
-      <c r="F217" s="5"/>
-    </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A218" s="5"/>
-      <c r="B218" s="5"/>
-      <c r="C218" s="5"/>
-      <c r="D218" s="5"/>
-      <c r="E218" s="5"/>
-      <c r="F218" s="5"/>
-    </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A219" s="5"/>
-      <c r="B219" s="5"/>
-      <c r="C219" s="5"/>
-      <c r="D219" s="5"/>
-      <c r="E219" s="5"/>
-      <c r="F219" s="5"/>
-    </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A220" s="5"/>
-      <c r="B220" s="5"/>
-      <c r="C220" s="5"/>
-      <c r="D220" s="5"/>
-      <c r="E220" s="5"/>
-      <c r="F220" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Scraping Scripts and Template/Template.xlsx
+++ b/Scraping Scripts and Template/Template.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="841" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="861" uniqueCount="49">
   <si>
     <t>Year</t>
   </si>
@@ -162,6 +162,15 @@
   </si>
   <si>
     <t>Team2</t>
+  </si>
+  <si>
+    <t>Washington Capitals/Carolina Hurricanes</t>
+  </si>
+  <si>
+    <t>San Jose Sharks/Vegas Golden Knights</t>
+  </si>
+  <si>
+    <t>New York Islanders/Washington Capitals</t>
   </si>
 </sst>
 </file>
@@ -576,17 +585,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F204"/>
+  <dimension ref="A1:F208"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A188" workbookViewId="0">
-      <selection activeCell="E205" sqref="E205"/>
+    <sheetView tabSelected="1" topLeftCell="A185" workbookViewId="0">
+      <selection activeCell="E207" sqref="E207"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="3" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="37.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4985,6 +4995,86 @@
         <v>23</v>
       </c>
     </row>
+    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A205" s="5">
+        <v>2019</v>
+      </c>
+      <c r="B205" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C205" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D205" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E205" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F205" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A206" s="5">
+        <v>2019</v>
+      </c>
+      <c r="B206" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C206" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D206" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E206" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="F206" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A207" s="5">
+        <v>2019</v>
+      </c>
+      <c r="B207" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C207" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D207" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E207" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F207" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A208" s="5">
+        <v>2019</v>
+      </c>
+      <c r="B208" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C208" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D208" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E208" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="F208" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Scraping Scripts and Template/Template.xlsx
+++ b/Scraping Scripts and Template/Template.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="861" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="861" uniqueCount="48">
   <si>
     <t>Year</t>
   </si>
@@ -165,9 +165,6 @@
   </si>
   <si>
     <t>Washington Capitals/Carolina Hurricanes</t>
-  </si>
-  <si>
-    <t>San Jose Sharks/Vegas Golden Knights</t>
   </si>
   <si>
     <t>New York Islanders/Washington Capitals</t>
@@ -587,8 +584,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F208"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A185" workbookViewId="0">
-      <selection activeCell="E207" sqref="E207"/>
+    <sheetView tabSelected="1" topLeftCell="A179" workbookViewId="0">
+      <selection activeCell="E209" sqref="E209"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5029,7 +5026,7 @@
         <v>20</v>
       </c>
       <c r="E206" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F206" s="5" t="s">
         <v>24</v>
@@ -5060,7 +5057,7 @@
         <v>2019</v>
       </c>
       <c r="B208" s="5" t="s">
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="C208" s="5" t="s">
         <v>9</v>
@@ -5069,7 +5066,7 @@
         <v>21</v>
       </c>
       <c r="E208" s="5" t="s">
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="F208" s="5" t="s">
         <v>24</v>

--- a/Scraping Scripts and Template/Template.xlsx
+++ b/Scraping Scripts and Template/Template.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="861" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="861" uniqueCount="46">
   <si>
     <t>Year</t>
   </si>
@@ -162,12 +162,6 @@
   </si>
   <si>
     <t>Team2</t>
-  </si>
-  <si>
-    <t>Washington Capitals/Carolina Hurricanes</t>
-  </si>
-  <si>
-    <t>New York Islanders/Washington Capitals</t>
   </si>
 </sst>
 </file>
@@ -584,14 +578,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F208"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A179" workbookViewId="0">
-      <selection activeCell="E209" sqref="E209"/>
+    <sheetView tabSelected="1" topLeftCell="A178" workbookViewId="0">
+      <selection activeCell="E207" sqref="E207"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="38" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.42578125" customWidth="1"/>
     <col min="4" max="4" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="37.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.140625" bestFit="1" customWidth="1"/>
@@ -5017,7 +5011,7 @@
         <v>2019</v>
       </c>
       <c r="B206" s="5" t="s">
-        <v>46</v>
+        <v>5</v>
       </c>
       <c r="C206" s="5" t="s">
         <v>27</v>
@@ -5026,7 +5020,7 @@
         <v>20</v>
       </c>
       <c r="E206" s="5" t="s">
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="F206" s="5" t="s">
         <v>24</v>

--- a/Scraping Scripts and Template/Template.xlsx
+++ b/Scraping Scripts and Template/Template.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="861" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="871" uniqueCount="46">
   <si>
     <t>Year</t>
   </si>
@@ -576,10 +576,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F208"/>
+  <dimension ref="A1:F210"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A178" workbookViewId="0">
-      <selection activeCell="E207" sqref="E207"/>
+    <sheetView tabSelected="1" topLeftCell="A184" workbookViewId="0">
+      <selection activeCell="F210" sqref="F210"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5066,6 +5066,46 @@
         <v>24</v>
       </c>
     </row>
+    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A209" s="5">
+        <v>2019</v>
+      </c>
+      <c r="B209" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C209" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D209" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E209" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F209" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A210" s="5">
+        <v>2019</v>
+      </c>
+      <c r="B210" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C210" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D210" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E210" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F210" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Scraping Scripts and Template/Template.xlsx
+++ b/Scraping Scripts and Template/Template.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="871" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="876" uniqueCount="46">
   <si>
     <t>Year</t>
   </si>
@@ -576,10 +576,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F210"/>
+  <dimension ref="A1:F211"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A184" workbookViewId="0">
-      <selection activeCell="F210" sqref="F210"/>
+      <selection activeCell="F212" sqref="F212"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5106,7 +5106,28 @@
         <v>25</v>
       </c>
     </row>
+    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A211" s="5">
+        <v>2019</v>
+      </c>
+      <c r="B211" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C211" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D211" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E211" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F211" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>